--- a/leetCodeTeamBlind.xlsx
+++ b/leetCodeTeamBlind.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Competitive_Programming&amp;Job_Prep\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Competitive_Programming&amp;Job_Prep\LeetcodePrep\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -657,7 +657,7 @@
   <dimension ref="A2:C88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -713,7 +713,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
@@ -724,7 +724,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
@@ -735,7 +735,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
@@ -746,7 +746,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
@@ -757,7 +757,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
@@ -768,7 +768,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
@@ -779,7 +779,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
@@ -790,7 +790,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
@@ -806,7 +806,7 @@
         <v>22</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
@@ -817,7 +817,7 @@
         <v>23</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
@@ -828,7 +828,7 @@
         <v>24</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
@@ -839,7 +839,7 @@
         <v>25</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
@@ -850,7 +850,7 @@
         <v>26</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">

--- a/leetCodeTeamBlind.xlsx
+++ b/leetCodeTeamBlind.xlsx
@@ -656,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -866,7 +866,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
@@ -877,7 +877,7 @@
         <v>28</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
@@ -888,14 +888,14 @@
         <v>29</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -1641,8 +1641,9 @@
     <hyperlink ref="B87" r:id="rId73"/>
     <hyperlink ref="B88" r:id="rId74"/>
     <hyperlink ref="B15" r:id="rId75"/>
+    <hyperlink ref="B24" r:id="rId76"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId76"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId77"/>
 </worksheet>
 </file>
--- a/leetCodeTeamBlind.xlsx
+++ b/leetCodeTeamBlind.xlsx
@@ -656,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -899,7 +899,7 @@
         <v>21</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
@@ -910,7 +910,7 @@
         <v>30</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
@@ -921,7 +921,7 @@
         <v>31</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
@@ -932,7 +932,7 @@
         <v>32</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">

--- a/leetCodeTeamBlind.xlsx
+++ b/leetCodeTeamBlind.xlsx
@@ -656,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -943,7 +943,7 @@
         <v>33</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
@@ -954,7 +954,7 @@
         <v>34</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
@@ -965,7 +965,7 @@
         <v>35</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
@@ -976,7 +976,7 @@
         <v>36</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.4">

--- a/leetCodeTeamBlind.xlsx
+++ b/leetCodeTeamBlind.xlsx
@@ -656,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -992,7 +992,7 @@
         <v>37</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.4">
@@ -1003,7 +1003,7 @@
         <v>38</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.4">
